--- a/biology/Botanique/Pyrèthre_de_Dalmatie/Pyrèthre_de_Dalmatie.xlsx
+++ b/biology/Botanique/Pyrèthre_de_Dalmatie/Pyrèthre_de_Dalmatie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanacetum cinerariifolium
 Le pyrèthre de Dalmatie (Tanacetum  cinerariifolium) est une espèce de plantes à fleurs de la famille des Asteraceae (Composées), cultivée pour ses fleurs dont on tire une poudre insecticide.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces de 40 à 60 cm de haut, poussant en touffes à nombreuses tiges portant chacune un capitule terminal. Toute la plante est couverte de poils mous et cotonneux.
 Les feuilles sont d'un vert glauque et sont pennatiséquées.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pyrèthre de Dalmatie est une espèce originaire du Sud-Est de l'Europe (Croatie, Monténégro, Albanie). Elle a été largement répandue par la culture, notamment en Europe (Italie, Espagne), au Japon, en Afrique du Nord, au Kenya, au Rwanda (plantations au détriment du parc national des Volcans abritant des gorilles).
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a une certaine importance économique comme source d'insecticide naturel[1].  Les fleurs sont pulvérisées, et on en extrait les composants actifs, un groupe d'esters appelés pyréthrines (C21H28O3, ou C22H28O5) contenus dans divers tissus mais principalement dans les capitules, qui sont vendus sous forme d'oléorésines. L'application  se fait sous forme de suspension dans l'eau ou dans l'huile, ou sous forme de poudre. Cette poudre était déjà utilisée dans les tranchées par les combattants de la Première Guerre mondiale pour lutter contre les poux. Les pyréthrines attaquent le système nerveux de tous les insectes, et inhibent les moustiques femelles en les empêchant de piquer. À dose inférieure au seuil fatal aux insectes, elles ont toujours un effet répulsif.  Elles sont toxiques pour les poissons, les abeilles et la faune auxiliaire. Elles ne sont pas persistantes car elles sont biodégradables et se décomposent facilement par exposition à la lumière. De ce fait, leur efficacité est moindre que celle des pyréthrinoïdes de synthèse.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a une certaine importance économique comme source d'insecticide naturel.  Les fleurs sont pulvérisées, et on en extrait les composants actifs, un groupe d'esters appelés pyréthrines (C21H28O3, ou C22H28O5) contenus dans divers tissus mais principalement dans les capitules, qui sont vendus sous forme d'oléorésines. L'application  se fait sous forme de suspension dans l'eau ou dans l'huile, ou sous forme de poudre. Cette poudre était déjà utilisée dans les tranchées par les combattants de la Première Guerre mondiale pour lutter contre les poux. Les pyréthrines attaquent le système nerveux de tous les insectes, et inhibent les moustiques femelles en les empêchant de piquer. À dose inférieure au seuil fatal aux insectes, elles ont toujours un effet répulsif.  Elles sont toxiques pour les poissons, les abeilles et la faune auxiliaire. Elles ne sont pas persistantes car elles sont biodégradables et se décomposent facilement par exposition à la lumière. De ce fait, leur efficacité est moindre que celle des pyréthrinoïdes de synthèse.
 Le Kenya était le premier producteur mondial de pyrèthre au début des années 2000, mais la Tanzanie et la Papouasie-Nouvelle-Guinée sont maintenant premiers producteurs.
 </t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,6 +630,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyr%C3%A8thre_de_Dalmatie</t>
+          <t>Pyrèthre_de_Dalmatie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chrysanthemum cinerariifolium (Trevir.) Vis.
 Pyrethrum cinerariifolium Trevir.</t>
